--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha7</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H2">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03360366666666666</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N2">
-        <v>0.100811</v>
+        <v>0.684721</v>
       </c>
       <c r="O2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q2">
-        <v>0.03833514134188888</v>
+        <v>0.4506760585093333</v>
       </c>
       <c r="R2">
-        <v>0.345016272077</v>
+        <v>4.056084526584</v>
       </c>
       <c r="S2">
-        <v>0.01102195911297949</v>
+        <v>0.09072303755904687</v>
       </c>
       <c r="T2">
-        <v>0.01102195911297949</v>
+        <v>0.09072303755904687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H3">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.454069</v>
       </c>
       <c r="O3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q3">
-        <v>1.313469991564778</v>
+        <v>2.273431372397333</v>
       </c>
       <c r="R3">
-        <v>11.821229924083</v>
+        <v>20.460882351576</v>
       </c>
       <c r="S3">
-        <v>0.3776433850612527</v>
+        <v>0.4576515567925322</v>
       </c>
       <c r="T3">
-        <v>0.3776433850612527</v>
+        <v>0.4576515567925323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H4">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,43 +682,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2314666666666667</v>
+        <v>0.127538</v>
       </c>
       <c r="N4">
-        <v>0.6944</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O4">
-        <v>0.1623309072530404</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P4">
-        <v>0.1623309072530403</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q4">
-        <v>0.2640577134222222</v>
+        <v>0.251832453584</v>
       </c>
       <c r="R4">
-        <v>2.3765194208</v>
+        <v>2.266492082256</v>
       </c>
       <c r="S4">
-        <v>0.07592076666289352</v>
+        <v>0.05069496085649069</v>
       </c>
       <c r="T4">
-        <v>0.0759207666628935</v>
+        <v>0.0506949608564907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.140802333333333</v>
+        <v>1.020259</v>
       </c>
       <c r="H5">
-        <v>3.422407</v>
+        <v>3.060777</v>
       </c>
       <c r="I5">
-        <v>0.4676913838998554</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J5">
-        <v>0.4676913838998554</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.009467333333333333</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N5">
-        <v>0.028402</v>
+        <v>0.684721</v>
       </c>
       <c r="O5">
-        <v>0.006639577228975881</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P5">
-        <v>0.00663957722897588</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q5">
-        <v>0.01080035595711111</v>
+        <v>0.2328642542463334</v>
       </c>
       <c r="R5">
-        <v>0.09720320361399998</v>
+        <v>2.095778288217</v>
       </c>
       <c r="S5">
-        <v>0.003105273062729696</v>
+        <v>0.046876580384649</v>
       </c>
       <c r="T5">
-        <v>0.003105273062729696</v>
+        <v>0.04687658038464899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>3.060777</v>
       </c>
       <c r="I6">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J6">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03360366666666666</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N6">
-        <v>0.100811</v>
+        <v>3.454069</v>
       </c>
       <c r="O6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q6">
-        <v>0.03428444334966666</v>
+        <v>1.174681661290333</v>
       </c>
       <c r="R6">
-        <v>0.308559990147</v>
+        <v>10.572134951613</v>
       </c>
       <c r="S6">
-        <v>0.00985731940939462</v>
+        <v>0.2364684932003315</v>
       </c>
       <c r="T6">
-        <v>0.009857319409394622</v>
+        <v>0.2364684932003315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>3.060777</v>
       </c>
       <c r="I7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,152 +868,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.151356333333333</v>
+        <v>0.127538</v>
       </c>
       <c r="N7">
-        <v>3.454069</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q7">
-        <v>1.174681661290333</v>
+        <v>0.130121792342</v>
       </c>
       <c r="R7">
-        <v>10.572134951613</v>
+        <v>1.171096131078</v>
       </c>
       <c r="S7">
-        <v>0.3377395462309497</v>
+        <v>0.02619407894206851</v>
       </c>
       <c r="T7">
-        <v>0.3377395462309497</v>
+        <v>0.02619407894206851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.020259</v>
+        <v>0.077601</v>
       </c>
       <c r="H8">
-        <v>3.060777</v>
+        <v>0.232803</v>
       </c>
       <c r="I8">
-        <v>0.4182725873745722</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J8">
-        <v>0.4182725873745722</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2314666666666667</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N8">
-        <v>0.6944</v>
+        <v>0.684721</v>
       </c>
       <c r="O8">
-        <v>0.1623309072530404</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P8">
-        <v>0.1623309072530403</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q8">
-        <v>0.2361559498666667</v>
+        <v>0.017711678107</v>
       </c>
       <c r="R8">
-        <v>2.1254035488</v>
+        <v>0.159405102963</v>
       </c>
       <c r="S8">
-        <v>0.06789856858759091</v>
+        <v>0.003565437319767968</v>
       </c>
       <c r="T8">
-        <v>0.0678985685875909</v>
+        <v>0.003565437319767968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.020259</v>
+        <v>0.077601</v>
       </c>
       <c r="H9">
-        <v>3.060777</v>
+        <v>0.232803</v>
       </c>
       <c r="I9">
-        <v>0.4182725873745722</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J9">
-        <v>0.4182725873745722</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.009467333333333333</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N9">
-        <v>0.028402</v>
+        <v>3.454069</v>
       </c>
       <c r="O9">
-        <v>0.006639577228975881</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P9">
-        <v>0.00663957722897588</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q9">
-        <v>0.009659132039333333</v>
+        <v>0.08934640282300001</v>
       </c>
       <c r="R9">
-        <v>0.08693218835399999</v>
+        <v>0.8041176254070002</v>
       </c>
       <c r="S9">
-        <v>0.002777153146637034</v>
+        <v>0.01798581687673319</v>
       </c>
       <c r="T9">
-        <v>0.002777153146637034</v>
+        <v>0.01798581687673319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,140 +1036,140 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H10">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I10">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J10">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03360366666666666</v>
+        <v>0.127538</v>
       </c>
       <c r="N10">
-        <v>0.100811</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O10">
-        <v>0.0235667354422325</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P10">
-        <v>0.0235667354422325</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q10">
-        <v>0.002321038860333333</v>
+        <v>0.009897076338000001</v>
       </c>
       <c r="R10">
-        <v>0.020889349743</v>
+        <v>0.08907368704200001</v>
       </c>
       <c r="S10">
-        <v>0.0006673353618309626</v>
+        <v>0.001992324223538786</v>
       </c>
       <c r="T10">
-        <v>0.0006673353618309626</v>
+        <v>0.001992324223538787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1837383333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.551215</v>
+      </c>
+      <c r="I11">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="J11">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.06907100000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.207213</v>
-      </c>
-      <c r="I11">
-        <v>0.02831683511985592</v>
-      </c>
-      <c r="J11">
-        <v>0.02831683511985592</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>1.151356333333333</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N11">
-        <v>3.454069</v>
+        <v>0.684721</v>
       </c>
       <c r="O11">
-        <v>0.8074627800757513</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P11">
-        <v>0.8074627800757513</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q11">
-        <v>0.07952533329966667</v>
+        <v>0.04193649844611112</v>
       </c>
       <c r="R11">
-        <v>0.715727999697</v>
+        <v>0.377428486015</v>
       </c>
       <c r="S11">
-        <v>0.02286479040882554</v>
+        <v>0.008441998308509342</v>
       </c>
       <c r="T11">
-        <v>0.02286479040882554</v>
+        <v>0.008441998308509341</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06907100000000001</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H12">
-        <v>0.207213</v>
+        <v>0.551215</v>
       </c>
       <c r="I12">
-        <v>0.02831683511985592</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J12">
-        <v>0.02831683511985592</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,122 +1178,122 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2314666666666667</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N12">
-        <v>0.6944</v>
+        <v>3.454069</v>
       </c>
       <c r="O12">
-        <v>0.1623309072530404</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P12">
-        <v>0.1623309072530403</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q12">
-        <v>0.01598763413333333</v>
+        <v>0.2115482937594445</v>
       </c>
       <c r="R12">
-        <v>0.1438887072</v>
+        <v>1.903934643835</v>
       </c>
       <c r="S12">
-        <v>0.004596697535540968</v>
+        <v>0.0425855854508253</v>
       </c>
       <c r="T12">
-        <v>0.004596697535540967</v>
+        <v>0.0425855854508253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.06907100000000001</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H13">
-        <v>0.207213</v>
+        <v>0.551215</v>
       </c>
       <c r="I13">
-        <v>0.02831683511985592</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J13">
-        <v>0.02831683511985592</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.009467333333333333</v>
+        <v>0.127538</v>
       </c>
       <c r="N13">
-        <v>0.028402</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O13">
-        <v>0.006639577228975881</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P13">
-        <v>0.00663957722897588</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q13">
-        <v>0.0006539181806666667</v>
+        <v>0.02343361955666667</v>
       </c>
       <c r="R13">
-        <v>0.005885263625999999</v>
+        <v>0.21090257601</v>
       </c>
       <c r="S13">
-        <v>0.0001880118136584599</v>
+        <v>0.004717288853141635</v>
       </c>
       <c r="T13">
-        <v>0.0001880118136584599</v>
+        <v>0.004717288853141635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.209088</v>
+        <v>0.03989166666666667</v>
       </c>
       <c r="H14">
-        <v>0.627264</v>
+        <v>0.119675</v>
       </c>
       <c r="I14">
-        <v>0.08571919360571637</v>
+        <v>0.01210284123236505</v>
       </c>
       <c r="J14">
-        <v>0.08571919360571637</v>
+        <v>0.01210284123236505</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,60 +1302,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03360366666666666</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N14">
-        <v>0.100811</v>
+        <v>0.684721</v>
       </c>
       <c r="O14">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P14">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q14">
-        <v>0.007026123456</v>
+        <v>0.009104887297222223</v>
       </c>
       <c r="R14">
-        <v>0.063235111104</v>
+        <v>0.08194398567500001</v>
       </c>
       <c r="S14">
-        <v>0.002020121558027425</v>
+        <v>0.001832853147267138</v>
       </c>
       <c r="T14">
-        <v>0.002020121558027426</v>
+        <v>0.001832853147267138</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.209088</v>
+        <v>0.03989166666666667</v>
       </c>
       <c r="H15">
-        <v>0.627264</v>
+        <v>0.119675</v>
       </c>
       <c r="I15">
-        <v>0.08571919360571637</v>
+        <v>0.01210284123236505</v>
       </c>
       <c r="J15">
-        <v>0.08571919360571637</v>
+        <v>0.01210284123236505</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,54 +1370,54 @@
         <v>3.454069</v>
       </c>
       <c r="O15">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P15">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q15">
-        <v>0.240734793024</v>
+        <v>0.04592952306388889</v>
       </c>
       <c r="R15">
-        <v>2.166613137216</v>
+        <v>0.4133657075750001</v>
       </c>
       <c r="S15">
-        <v>0.0692150583747233</v>
+        <v>0.009245811414470792</v>
       </c>
       <c r="T15">
-        <v>0.0692150583747233</v>
+        <v>0.009245811414470794</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.209088</v>
+        <v>0.03989166666666667</v>
       </c>
       <c r="H16">
-        <v>0.627264</v>
+        <v>0.119675</v>
       </c>
       <c r="I16">
-        <v>0.08571919360571637</v>
+        <v>0.01210284123236505</v>
       </c>
       <c r="J16">
-        <v>0.08571919360571637</v>
+        <v>0.01210284123236505</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,90 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2314666666666667</v>
+        <v>0.127538</v>
       </c>
       <c r="N16">
-        <v>0.6944</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O16">
-        <v>0.1623309072530404</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P16">
-        <v>0.1623309072530403</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q16">
-        <v>0.04839690240000001</v>
+        <v>0.005087703383333334</v>
       </c>
       <c r="R16">
-        <v>0.4355721216</v>
+        <v>0.04578933045000001</v>
       </c>
       <c r="S16">
-        <v>0.01391487446701495</v>
+        <v>0.001024176670627115</v>
       </c>
       <c r="T16">
-        <v>0.01391487446701495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.209088</v>
-      </c>
-      <c r="H17">
-        <v>0.627264</v>
-      </c>
-      <c r="I17">
-        <v>0.08571919360571637</v>
-      </c>
-      <c r="J17">
-        <v>0.08571919360571637</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.009467333333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.028402</v>
-      </c>
-      <c r="O17">
-        <v>0.006639577228975881</v>
-      </c>
-      <c r="P17">
-        <v>0.00663957722897588</v>
-      </c>
-      <c r="Q17">
-        <v>0.001979505792</v>
-      </c>
-      <c r="R17">
-        <v>0.017815552128</v>
-      </c>
-      <c r="S17">
-        <v>0.0005691392059506893</v>
-      </c>
-      <c r="T17">
-        <v>0.0005691392059506892</v>
+        <v>0.001024176670627115</v>
       </c>
     </row>
   </sheetData>
